--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Fgf2-Sdc1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Fgf2-Sdc1.xlsx
@@ -534,16 +534,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.6462393333333334</v>
+        <v>0.1636683333333333</v>
       </c>
       <c r="H2">
-        <v>1.938718</v>
+        <v>0.491005</v>
       </c>
       <c r="I2">
-        <v>0.03461850536298827</v>
+        <v>0.008639493057305454</v>
       </c>
       <c r="J2">
-        <v>0.03461850536298828</v>
+        <v>0.008639493057305455</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.482117666666667</v>
+        <v>0.2799683333333333</v>
       </c>
       <c r="N2">
-        <v>4.446353</v>
+        <v>0.839905</v>
       </c>
       <c r="O2">
-        <v>0.1401829251394648</v>
+        <v>0.0294305463214559</v>
       </c>
       <c r="P2">
-        <v>0.1401829251394648</v>
+        <v>0.0294305463214559</v>
       </c>
       <c r="Q2">
-        <v>0.9578027328282223</v>
+        <v>0.04582195050277778</v>
       </c>
       <c r="R2">
-        <v>8.620224595454001</v>
+        <v>0.412397554525</v>
       </c>
       <c r="S2">
-        <v>0.004852923345739944</v>
+        <v>0.0002542650006169248</v>
       </c>
       <c r="T2">
-        <v>0.004852923345739947</v>
+        <v>0.0002542650006169249</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.6462393333333334</v>
+        <v>0.1636683333333333</v>
       </c>
       <c r="H3">
-        <v>1.938718</v>
+        <v>0.491005</v>
       </c>
       <c r="I3">
-        <v>0.03461850536298827</v>
+        <v>0.008639493057305454</v>
       </c>
       <c r="J3">
-        <v>0.03461850536298828</v>
+        <v>0.008639493057305455</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>7.097371</v>
       </c>
       <c r="O3">
-        <v>0.2237632116883226</v>
+        <v>0.2486942046732164</v>
       </c>
       <c r="P3">
-        <v>0.2237632116883226</v>
+        <v>0.2486942046732163</v>
       </c>
       <c r="Q3">
-        <v>1.528866767819778</v>
+        <v>0.3872049608727778</v>
       </c>
       <c r="R3">
-        <v>13.759800910378</v>
+        <v>3.484844647855</v>
       </c>
       <c r="S3">
-        <v>0.007746347943871675</v>
+        <v>0.002148591854666354</v>
       </c>
       <c r="T3">
-        <v>0.007746347943871677</v>
+        <v>0.002148591854666355</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.6462393333333334</v>
+        <v>0.1636683333333333</v>
       </c>
       <c r="H4">
-        <v>1.938718</v>
+        <v>0.491005</v>
       </c>
       <c r="I4">
-        <v>0.03461850536298827</v>
+        <v>0.008639493057305454</v>
       </c>
       <c r="J4">
-        <v>0.03461850536298828</v>
+        <v>0.008639493057305455</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.724832333333334</v>
+        <v>6.86709</v>
       </c>
       <c r="N4">
-        <v>20.174497</v>
+        <v>20.60127</v>
       </c>
       <c r="O4">
-        <v>0.6360538631722126</v>
+        <v>0.7218752490053277</v>
       </c>
       <c r="P4">
-        <v>0.6360538631722126</v>
+        <v>0.7218752490053277</v>
       </c>
       <c r="Q4">
-        <v>4.345851163871779</v>
+        <v>1.12392517515</v>
       </c>
       <c r="R4">
-        <v>39.11266047484601</v>
+        <v>10.11532657635</v>
       </c>
       <c r="S4">
-        <v>0.02201923407337665</v>
+        <v>0.006236636202022174</v>
       </c>
       <c r="T4">
-        <v>0.02201923407337665</v>
+        <v>0.006236636202022176</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>45.968478</v>
       </c>
       <c r="I5">
-        <v>0.8208310864042158</v>
+        <v>0.808839719627903</v>
       </c>
       <c r="J5">
-        <v>0.8208310864042159</v>
+        <v>0.8088397196279031</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.482117666666667</v>
+        <v>0.2799683333333333</v>
       </c>
       <c r="N5">
-        <v>4.446353</v>
+        <v>0.839905</v>
       </c>
       <c r="O5">
-        <v>0.1401829251394648</v>
+        <v>0.0294305463214559</v>
       </c>
       <c r="P5">
-        <v>0.1401829251394648</v>
+        <v>0.0294305463214559</v>
       </c>
       <c r="Q5">
-        <v>22.71023111785933</v>
+        <v>4.289906057176666</v>
       </c>
       <c r="R5">
-        <v>204.392080060734</v>
+        <v>38.60915451459</v>
       </c>
       <c r="S5">
-        <v>0.1150665027375477</v>
+        <v>0.0238045948351424</v>
       </c>
       <c r="T5">
-        <v>0.1150665027375477</v>
+        <v>0.02380459483514241</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>45.968478</v>
       </c>
       <c r="I6">
-        <v>0.8208310864042158</v>
+        <v>0.808839719627903</v>
       </c>
       <c r="J6">
-        <v>0.8208310864042159</v>
+        <v>0.8088397196279031</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>7.097371</v>
       </c>
       <c r="O6">
-        <v>0.2237632116883226</v>
+        <v>0.2486942046732164</v>
       </c>
       <c r="P6">
-        <v>0.2237632116883226</v>
+        <v>0.2486942046732163</v>
       </c>
       <c r="Q6">
-        <v>36.25059363014866</v>
+        <v>36.25059363014867</v>
       </c>
       <c r="R6">
         <v>326.255342671338</v>
       </c>
       <c r="S6">
-        <v>0.1836718001474223</v>
+        <v>0.2011537507809687</v>
       </c>
       <c r="T6">
-        <v>0.1836718001474223</v>
+        <v>0.2011537507809687</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>45.968478</v>
       </c>
       <c r="I7">
-        <v>0.8208310864042158</v>
+        <v>0.808839719627903</v>
       </c>
       <c r="J7">
-        <v>0.8208310864042159</v>
+        <v>0.8088397196279031</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.724832333333334</v>
+        <v>6.86709</v>
       </c>
       <c r="N7">
-        <v>20.174497</v>
+        <v>20.60127</v>
       </c>
       <c r="O7">
-        <v>0.6360538631722126</v>
+        <v>0.7218752490053277</v>
       </c>
       <c r="P7">
-        <v>0.6360538631722126</v>
+        <v>0.7218752490053277</v>
       </c>
       <c r="Q7">
-        <v>103.0434357228407</v>
+        <v>105.22322519634</v>
       </c>
       <c r="R7">
-        <v>927.3909215055661</v>
+        <v>947.00902676706</v>
       </c>
       <c r="S7">
-        <v>0.5220927835192456</v>
+        <v>0.583881374011792</v>
       </c>
       <c r="T7">
-        <v>0.5220927835192457</v>
+        <v>0.5838813740117921</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.698388</v>
+        <v>3.457711333333334</v>
       </c>
       <c r="H8">
-        <v>8.095164</v>
+        <v>10.373134</v>
       </c>
       <c r="I8">
-        <v>0.1445504082327959</v>
+        <v>0.1825207873147914</v>
       </c>
       <c r="J8">
-        <v>0.1445504082327959</v>
+        <v>0.1825207873147914</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.482117666666667</v>
+        <v>0.2799683333333333</v>
       </c>
       <c r="N8">
-        <v>4.446353</v>
+        <v>0.839905</v>
       </c>
       <c r="O8">
-        <v>0.1401829251394648</v>
+        <v>0.0294305463214559</v>
       </c>
       <c r="P8">
-        <v>0.1401829251394648</v>
+        <v>0.0294305463214559</v>
       </c>
       <c r="Q8">
-        <v>3.999328526321333</v>
+        <v>0.9680496791411112</v>
       </c>
       <c r="R8">
-        <v>35.993956736892</v>
+        <v>8.71244711227</v>
       </c>
       <c r="S8">
-        <v>0.0202634990561771</v>
+        <v>0.005371686485696569</v>
       </c>
       <c r="T8">
-        <v>0.02026349905617711</v>
+        <v>0.00537168648569657</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.698388</v>
+        <v>3.457711333333334</v>
       </c>
       <c r="H9">
-        <v>8.095164</v>
+        <v>10.373134</v>
       </c>
       <c r="I9">
-        <v>0.1445504082327959</v>
+        <v>0.1825207873147914</v>
       </c>
       <c r="J9">
-        <v>0.1445504082327959</v>
+        <v>0.1825207873147914</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>7.097371</v>
       </c>
       <c r="O9">
-        <v>0.2237632116883226</v>
+        <v>0.2486942046732164</v>
       </c>
       <c r="P9">
-        <v>0.2237632116883226</v>
+        <v>0.2486942046732163</v>
       </c>
       <c r="Q9">
-        <v>6.383820245982667</v>
+        <v>8.180220047857112</v>
       </c>
       <c r="R9">
-        <v>57.454382213844</v>
+        <v>73.621980430714</v>
       </c>
       <c r="S9">
-        <v>0.03234506359702855</v>
+        <v>0.04539186203758133</v>
       </c>
       <c r="T9">
-        <v>0.03234506359702856</v>
+        <v>0.04539186203758133</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.698388</v>
+        <v>3.457711333333334</v>
       </c>
       <c r="H10">
-        <v>8.095164</v>
+        <v>10.373134</v>
       </c>
       <c r="I10">
-        <v>0.1445504082327959</v>
+        <v>0.1825207873147914</v>
       </c>
       <c r="J10">
-        <v>0.1445504082327959</v>
+        <v>0.1825207873147914</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>6.724832333333334</v>
+        <v>6.86709</v>
       </c>
       <c r="N10">
-        <v>20.174497</v>
+        <v>20.60127</v>
       </c>
       <c r="O10">
-        <v>0.6360538631722126</v>
+        <v>0.7218752490053277</v>
       </c>
       <c r="P10">
-        <v>0.6360538631722126</v>
+        <v>0.7218752490053277</v>
       </c>
       <c r="Q10">
-        <v>18.14620687027867</v>
+        <v>23.74441492002</v>
       </c>
       <c r="R10">
-        <v>163.315861832508</v>
+        <v>213.69973428018</v>
       </c>
       <c r="S10">
-        <v>0.09194184557959022</v>
+        <v>0.1317572387915135</v>
       </c>
       <c r="T10">
-        <v>0.09194184557959025</v>
+        <v>0.1317572387915135</v>
       </c>
     </row>
   </sheetData>
